--- a/IO映射.xlsx
+++ b/IO映射.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kin\Desktop\rk3568_xc7a100t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988AA66B-8F20-4758-AD27-57A90D7DB117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE92D72F-5B7D-454E-9BF4-1E36C45C9836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,10 +632,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PCIE30X2_PERSTN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPIO0_C6</t>
   </si>
   <si>
@@ -1279,6 +1275,10 @@
   </si>
   <si>
     <t>GPIO4_C4</t>
+  </si>
+  <si>
+    <t>PCIE30X2_PRSTN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1731,7 +1731,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -1741,7 +1741,7 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1818,23 +1818,23 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
         <v>282</v>
       </c>
-      <c r="C19" t="s">
-        <v>283</v>
-      </c>
       <c r="D19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2368,10 +2368,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C89" t="s">
         <v>146</v>
@@ -2387,7 +2387,7 @@
         <v>148</v>
       </c>
       <c r="D90" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2404,20 +2404,20 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" t="s">
+        <v>325</v>
+      </c>
+      <c r="D92" t="s">
         <v>154</v>
-      </c>
-      <c r="D92" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" t="s">
+        <v>155</v>
+      </c>
+      <c r="D93" t="s">
         <v>156</v>
-      </c>
-      <c r="D93" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,180 +2438,180 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C105" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" t="s">
         <v>167</v>
-      </c>
-      <c r="D107" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" t="s">
+        <v>168</v>
+      </c>
+      <c r="D108" t="s">
         <v>169</v>
-      </c>
-      <c r="D108" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" t="s">
         <v>171</v>
-      </c>
-      <c r="D109" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" t="s">
         <v>175</v>
-      </c>
-      <c r="D110" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" t="s">
+        <v>176</v>
+      </c>
+      <c r="D111" t="s">
         <v>177</v>
-      </c>
-      <c r="D111" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" t="s">
+        <v>182</v>
+      </c>
+      <c r="D112" t="s">
         <v>183</v>
-      </c>
-      <c r="D112" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" t="s">
+        <v>184</v>
+      </c>
+      <c r="D113" t="s">
         <v>185</v>
-      </c>
-      <c r="D113" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" t="s">
+        <v>180</v>
+      </c>
+      <c r="D114" t="s">
         <v>181</v>
-      </c>
-      <c r="D114" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" t="s">
+        <v>178</v>
+      </c>
+      <c r="D115" t="s">
         <v>179</v>
-      </c>
-      <c r="D115" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" t="s">
         <v>188</v>
-      </c>
-      <c r="D116" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -2621,413 +2621,413 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" t="s">
+        <v>189</v>
+      </c>
+      <c r="D118" t="s">
         <v>190</v>
-      </c>
-      <c r="D118" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" t="s">
         <v>192</v>
-      </c>
-      <c r="D119" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" t="s">
         <v>196</v>
-      </c>
-      <c r="D120" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" t="s">
+        <v>197</v>
+      </c>
+      <c r="D121" t="s">
         <v>198</v>
-      </c>
-      <c r="D121" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" t="s">
+        <v>199</v>
+      </c>
+      <c r="D122" t="s">
         <v>200</v>
-      </c>
-      <c r="D122" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" t="s">
+        <v>201</v>
+      </c>
+      <c r="D123" t="s">
         <v>202</v>
-      </c>
-      <c r="D123" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C125" t="s">
+        <v>204</v>
+      </c>
+      <c r="D125" t="s">
         <v>205</v>
-      </c>
-      <c r="D125" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" t="s">
+        <v>206</v>
+      </c>
+      <c r="D126" t="s">
         <v>207</v>
-      </c>
-      <c r="D126" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" t="s">
         <v>209</v>
-      </c>
-      <c r="D127" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" t="s">
+        <v>212</v>
+      </c>
+      <c r="D129" t="s">
         <v>213</v>
-      </c>
-      <c r="D129" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" t="s">
+        <v>214</v>
+      </c>
+      <c r="D130" t="s">
         <v>215</v>
-      </c>
-      <c r="D130" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" t="s">
+        <v>216</v>
+      </c>
+      <c r="D131" t="s">
         <v>217</v>
-      </c>
-      <c r="D131" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" t="s">
+        <v>218</v>
+      </c>
+      <c r="D132" t="s">
         <v>219</v>
-      </c>
-      <c r="D132" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" t="s">
+        <v>220</v>
+      </c>
+      <c r="D133" t="s">
         <v>221</v>
-      </c>
-      <c r="D133" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" t="s">
+        <v>222</v>
+      </c>
+      <c r="D134" t="s">
         <v>223</v>
-      </c>
-      <c r="D134" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" t="s">
+        <v>224</v>
+      </c>
+      <c r="D135" t="s">
         <v>225</v>
-      </c>
-      <c r="D135" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D136" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" t="s">
+        <v>228</v>
+      </c>
+      <c r="D137" t="s">
         <v>229</v>
-      </c>
-      <c r="D137" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" t="s">
+        <v>230</v>
+      </c>
+      <c r="D138" t="s">
         <v>231</v>
-      </c>
-      <c r="D138" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" t="s">
+        <v>232</v>
+      </c>
+      <c r="D139" t="s">
         <v>233</v>
-      </c>
-      <c r="D139" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" t="s">
+        <v>234</v>
+      </c>
+      <c r="D140" t="s">
         <v>235</v>
-      </c>
-      <c r="D140" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" t="s">
+        <v>236</v>
+      </c>
+      <c r="D141" t="s">
         <v>237</v>
-      </c>
-      <c r="D141" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142" t="s">
         <v>239</v>
-      </c>
-      <c r="D142" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C151" t="s">
+        <v>249</v>
+      </c>
+      <c r="D151" t="s">
         <v>250</v>
-      </c>
-      <c r="D151" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C159" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -3036,33 +3036,33 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C168" t="s">
+        <v>290</v>
+      </c>
+      <c r="D168" t="s">
         <v>291</v>
-      </c>
-      <c r="D168" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" t="s">
+        <v>288</v>
+      </c>
+      <c r="D169" t="s">
         <v>289</v>
-      </c>
-      <c r="D169" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D170" t="s">
         <v>149</v>
@@ -3072,50 +3072,50 @@
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" t="s">
+        <v>286</v>
+      </c>
+      <c r="D171" t="s">
         <v>287</v>
-      </c>
-      <c r="D171" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" t="s">
+        <v>294</v>
+      </c>
+      <c r="D172" t="s">
         <v>295</v>
-      </c>
-      <c r="D172" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" t="s">
+        <v>292</v>
+      </c>
+      <c r="D173" t="s">
         <v>293</v>
-      </c>
-      <c r="D173" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" t="s">
+        <v>298</v>
+      </c>
+      <c r="D174" t="s">
         <v>299</v>
-      </c>
-      <c r="D174" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" t="s">
+        <v>300</v>
+      </c>
+      <c r="D175" t="s">
         <v>301</v>
-      </c>
-      <c r="D175" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -3124,13 +3124,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C177" t="s">
         <v>268</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C177" t="s">
-        <v>269</v>
       </c>
       <c r="D177" t="s">
         <v>40</v>
@@ -3140,7 +3140,7 @@
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D178" t="s">
         <v>41</v>
@@ -3148,44 +3148,44 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C180" t="s">
+        <v>270</v>
+      </c>
+      <c r="D180" t="s">
         <v>271</v>
-      </c>
-      <c r="D180" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C182" t="s">
+        <v>273</v>
+      </c>
+      <c r="D182" t="s">
         <v>274</v>
-      </c>
-      <c r="D182" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C184" t="s">
+        <v>276</v>
+      </c>
+      <c r="D184" t="s">
         <v>277</v>
-      </c>
-      <c r="D184" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -3196,84 +3196,84 @@
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="D187" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="D188" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="D189" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="D190" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="D191" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="D192" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="D193" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="D194" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="D195" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="D196" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="D197" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -3294,81 +3294,94 @@
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="D200" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="D201" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="D202" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="D203" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="D204" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="D205" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="D206" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="D207" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="D208" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="D209" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B125:B142"/>
+    <mergeCell ref="A125:A142"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="B186:B209"/>
+    <mergeCell ref="A186:A209"/>
+    <mergeCell ref="B151:B157"/>
+    <mergeCell ref="A151:A157"/>
+    <mergeCell ref="B159:B166"/>
+    <mergeCell ref="A159:A166"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B168:B175"/>
+    <mergeCell ref="A168:A175"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B76:B87"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B105:B123"/>
+    <mergeCell ref="A105:A123"/>
     <mergeCell ref="B89:B103"/>
     <mergeCell ref="A89:A103"/>
     <mergeCell ref="B19:B20"/>
@@ -3385,26 +3398,13 @@
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B58:B74"/>
     <mergeCell ref="A58:A74"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B76:B87"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B105:B123"/>
-    <mergeCell ref="A105:A123"/>
-    <mergeCell ref="B125:B142"/>
-    <mergeCell ref="A125:A142"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="B186:B209"/>
-    <mergeCell ref="A186:A209"/>
-    <mergeCell ref="B151:B157"/>
-    <mergeCell ref="A151:A157"/>
-    <mergeCell ref="B159:B166"/>
-    <mergeCell ref="A159:A166"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B168:B175"/>
-    <mergeCell ref="A168:A175"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
